--- a/b_count.xlsx
+++ b/b_count.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24030" windowHeight="11520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24030" windowHeight="10020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1057,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1065,6 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -36912,8 +36913,8 @@
   <dimension ref="A1:AO289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:R4"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2:O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43385,7 +43386,7 @@
         <v>0.10126582278481013</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>249</v>
       </c>
@@ -62970,145 +62971,145 @@
       </c>
     </row>
     <row r="182" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="A182" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="2">
         <v>31.239121000000001</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="2">
         <v>121.55226</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="3">
         <f>'20'!C200/'20'!AN200</f>
         <v>7.9331941544885182E-2</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="3">
         <f>'20'!E200/'20'!AN200</f>
         <v>0.1544885177453027</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H182" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="3">
         <f>'20'!G200/'20'!AN200</f>
         <v>1.2526096033402923E-2</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J182" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="3">
         <f>'20'!I200/'20'!AN200</f>
         <v>1.8789144050104383E-2</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L182" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M182">
+      <c r="M182" s="3">
         <f>'20'!K200/'20'!AN200</f>
         <v>0.11064718162839249</v>
       </c>
-      <c r="N182" t="s">
+      <c r="N182" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O182">
+      <c r="O182" s="3">
         <f>'20'!M200/'20'!AN200</f>
         <v>6.471816283924843E-2</v>
       </c>
-      <c r="P182" t="s">
+      <c r="P182" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q182">
+      <c r="Q182" s="3">
         <f>'20'!O200/'20'!AN200</f>
         <v>5.2192066805845511E-2</v>
       </c>
-      <c r="R182" t="s">
+      <c r="R182" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S182">
+      <c r="S182" s="3">
         <f>'20'!Q200/'20'!AN200</f>
         <v>0.11899791231732777</v>
       </c>
-      <c r="T182" t="s">
+      <c r="T182" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U182">
+      <c r="U182" s="3">
         <f>'20'!S200/'20'!AN200</f>
         <v>3.7578288100208766E-2</v>
       </c>
-      <c r="V182" t="s">
+      <c r="V182" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="W182">
+      <c r="W182" s="3">
         <f>'20'!U200/'20'!AN200</f>
         <v>4.5929018789144051E-2</v>
       </c>
-      <c r="X182" t="s">
+      <c r="X182" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="Y182">
+      <c r="Y182" s="3">
         <f>'20'!W200/'20'!AN200</f>
         <v>6.0542797494780795E-2</v>
       </c>
-      <c r="Z182" t="s">
+      <c r="Z182" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA182">
+      <c r="AA182" s="3">
         <f>'20'!Y200/'20'!AN200</f>
         <v>8.350730688935281E-3</v>
       </c>
-      <c r="AB182" t="s">
+      <c r="AB182" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC182">
+      <c r="AC182" s="3">
         <f>'20'!AA200/'20'!AN200</f>
         <v>1.8789144050104383E-2</v>
       </c>
-      <c r="AD182" t="s">
+      <c r="AD182" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AE182">
+      <c r="AE182" s="3">
         <f>'20'!AC200/'20'!AN200</f>
         <v>5.0104384133611693E-2</v>
       </c>
-      <c r="AF182" t="s">
+      <c r="AF182" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AG182">
+      <c r="AG182" s="3">
         <f>'20'!AE200/'20'!AN200</f>
         <v>2.2964509394572025E-2</v>
       </c>
-      <c r="AH182" t="s">
+      <c r="AH182" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AI182">
+      <c r="AI182" s="3">
         <f>'20'!AG200/'20'!AN200</f>
         <v>1.4613778705636743E-2</v>
       </c>
-      <c r="AJ182" t="s">
+      <c r="AJ182" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AK182">
+      <c r="AK182" s="3">
         <f>'20'!AI200/'20'!AN200</f>
         <v>4.1753653444676405E-3</v>
       </c>
-      <c r="AL182" t="s">
+      <c r="AL182" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AM182">
+      <c r="AM182" s="3">
         <f>'20'!AK200/'20'!AN200</f>
         <v>0.10020876826722339</v>
       </c>
-      <c r="AN182" t="s">
+      <c r="AN182" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AO182">
+      <c r="AO182" s="3">
         <f>'20'!AM200/'20'!AN200</f>
         <v>2.5052192066805846E-2</v>
       </c>
@@ -75786,145 +75787,145 @@
       </c>
     </row>
     <row r="271" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+      <c r="A271" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="2">
         <v>31.259782999999999</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="2">
         <v>121.480245</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="3">
         <f>'20'!C141/'20'!AN141</f>
         <v>0.21198668146503885</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="3">
         <f>'20'!E141/'20'!AN141</f>
         <v>2.2197558268590455E-2</v>
       </c>
-      <c r="H271" t="s">
+      <c r="H271" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="3">
         <f>'20'!G141/'20'!AN141</f>
         <v>9.9889012208657056E-3</v>
       </c>
-      <c r="J271" t="s">
+      <c r="J271" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K271">
+      <c r="K271" s="3">
         <f>'20'!I141/'20'!AN141</f>
         <v>0</v>
       </c>
-      <c r="L271" t="s">
+      <c r="L271" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M271">
+      <c r="M271" s="3">
         <f>'20'!K141/'20'!AN141</f>
         <v>6.6592674805771362E-3</v>
       </c>
-      <c r="N271" t="s">
+      <c r="N271" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O271">
+      <c r="O271" s="3">
         <f>'20'!M141/'20'!AN141</f>
         <v>2.774694783573807E-2</v>
       </c>
-      <c r="P271" t="s">
+      <c r="P271" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q271">
+      <c r="Q271" s="3">
         <f>'20'!O141/'20'!AN141</f>
         <v>0.10654827968923418</v>
       </c>
-      <c r="R271" t="s">
+      <c r="R271" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S271">
+      <c r="S271" s="3">
         <f>'20'!Q141/'20'!AN141</f>
         <v>1.2208657047724751E-2</v>
       </c>
-      <c r="T271" t="s">
+      <c r="T271" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U271">
+      <c r="U271" s="3">
         <f>'20'!S141/'20'!AN141</f>
         <v>0.2541620421753607</v>
       </c>
-      <c r="V271" t="s">
+      <c r="V271" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="W271">
+      <c r="W271" s="3">
         <f>'20'!U141/'20'!AN141</f>
         <v>3.662597114317425E-2</v>
       </c>
-      <c r="X271" t="s">
+      <c r="X271" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="Y271">
+      <c r="Y271" s="3">
         <f>'20'!W141/'20'!AN141</f>
         <v>1.2208657047724751E-2</v>
       </c>
-      <c r="Z271" t="s">
+      <c r="Z271" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA271">
+      <c r="AA271" s="3">
         <f>'20'!Y141/'20'!AN141</f>
         <v>0</v>
       </c>
-      <c r="AB271" t="s">
+      <c r="AB271" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC271">
+      <c r="AC271" s="3">
         <f>'20'!AA141/'20'!AN141</f>
         <v>1.7758046614872364E-2</v>
       </c>
-      <c r="AD271" t="s">
+      <c r="AD271" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AE271">
+      <c r="AE271" s="3">
         <f>'20'!AC141/'20'!AN141</f>
         <v>0.10099889012208657</v>
       </c>
-      <c r="AF271" t="s">
+      <c r="AF271" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AG271">
+      <c r="AG271" s="3">
         <f>'20'!AE141/'20'!AN141</f>
         <v>3.3296337402885685E-2</v>
       </c>
-      <c r="AH271" t="s">
+      <c r="AH271" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AI271">
+      <c r="AI271" s="3">
         <f>'20'!AG141/'20'!AN141</f>
         <v>4.5504994450610431E-2</v>
       </c>
-      <c r="AJ271" t="s">
+      <c r="AJ271" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AK271">
+      <c r="AK271" s="3">
         <f>'20'!AI141/'20'!AN141</f>
         <v>2.2197558268590455E-2</v>
       </c>
-      <c r="AL271" t="s">
+      <c r="AL271" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AM271">
+      <c r="AM271" s="3">
         <f>'20'!AK141/'20'!AN141</f>
         <v>2.5527192008879023E-2</v>
       </c>
-      <c r="AN271" t="s">
+      <c r="AN271" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AO271">
+      <c r="AO271" s="3">
         <f>'20'!AM141/'20'!AN141</f>
         <v>5.4384017758046618E-2</v>
       </c>
@@ -78522,7 +78523,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AO317">
+  <sortState ref="A2:AO289">
     <sortCondition descending="1" ref="O1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
